--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrsoe\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILES\Writing-with-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE38367-E587-416F-81A5-06EF95D405E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C751B93-272B-4C71-922E-434D5CFD4B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1028,7 +1028,7 @@
     <t>Using rats and monkeys in the improvement of the intelligence</t>
   </si>
   <si>
-    <t>L`</t>
+    <t>PyAutoGUI-Selenium-OpenCV to simulate the interaction of a human using a computer with the web and the operating sistem</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
